--- a/NZ_TIMES_model-v82/SysSettings.xlsx
+++ b/NZ_TIMES_model-v82/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\NZ_TIMES_model-v81\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\NZ_TIMES_model-v82\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B37059-4A56-438F-8E0D-87BEAB2192E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E216B6B-DEEA-43D2-9CB8-82096F5DBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4245" windowWidth="21600" windowHeight="11505" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="2565" windowWidth="21600" windowHeight="10830" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -16683,7 +16683,7 @@
   <dimension ref="B3:C10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
